--- a/matches.xlsx
+++ b/matches.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\iCentro\Desktop\Escritorio\Facu\Analisis exploratorio de datos (Shiny)\Proyecto-WORLDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841935AE-B42E-4274-A61C-35764AD28CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B707D-EA6D-4BDA-B054-BB8EC536EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C6FBEDB-E842-4995-A78D-B58436CB68C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="319">
   <si>
     <t>Date</t>
   </si>
@@ -394,18 +393,12 @@
     <t>Xiaohu</t>
   </si>
   <si>
-    <t>Light (Wang Guang-Yu)</t>
-  </si>
-  <si>
     <t>Crisp</t>
   </si>
   <si>
     <t>Kanavi</t>
   </si>
   <si>
-    <t>knight (Zhuo Ding)</t>
-  </si>
-  <si>
     <t>Ruler</t>
   </si>
   <si>
@@ -427,9 +420,6 @@
     <t>Keria</t>
   </si>
   <si>
-    <t>Bin (Chen Ze-Bin)</t>
-  </si>
-  <si>
     <t>XUN</t>
   </si>
   <si>
@@ -445,9 +435,6 @@
     <t>Zika</t>
   </si>
   <si>
-    <t>Tarzan (Lee Seung-yong)</t>
-  </si>
-  <si>
     <t>Scout</t>
   </si>
   <si>
@@ -472,9 +459,6 @@
     <t>Lehends</t>
   </si>
   <si>
-    <t>Doran (Choi Hyeon-joon)</t>
-  </si>
-  <si>
     <t>Peanut</t>
   </si>
   <si>
@@ -526,9 +510,6 @@
     <t>Humanoid</t>
   </si>
   <si>
-    <t>Noah (Oh Hyeon-taek)</t>
-  </si>
-  <si>
     <t>Trymbi</t>
   </si>
   <si>
@@ -586,15 +567,9 @@
     <t>EMENES</t>
   </si>
   <si>
-    <t>Berserker (Kim Min-cheol)</t>
-  </si>
-  <si>
     <t>Zven</t>
   </si>
   <si>
-    <t>Adam (Adam Maanane)</t>
-  </si>
-  <si>
     <t>Sheo</t>
   </si>
   <si>
@@ -613,12 +588,6 @@
     <t>Pyosik</t>
   </si>
   <si>
-    <t>APA (Eain Stearns)</t>
-  </si>
-  <si>
-    <t>Yeon (Sean Sung)</t>
-  </si>
-  <si>
     <t>CoreJJ</t>
   </si>
   <si>
@@ -983,6 +952,36 @@
   </si>
   <si>
     <t>Match</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Doran</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Yeon</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>Berserker</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0EFB-10A1-43D7-87F4-77EB0B831DD5}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1395,94 +1394,94 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>4</v>
@@ -1529,7 +1528,7 @@
         <v>45249.447222222225</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1610,28 +1609,28 @@
         <v>121</v>
       </c>
       <c r="AC2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD2" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" t="s">
-        <v>123</v>
-      </c>
       <c r="AE2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG2" t="s">
         <v>128</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>129</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>130</v>
       </c>
-      <c r="AH2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ2" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AK2" s="3">
         <v>41229</v>
@@ -1675,7 +1674,7 @@
         <v>45249.410416666666</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1756,28 +1755,28 @@
         <v>121</v>
       </c>
       <c r="AC3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD3" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
       <c r="AE3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG3" t="s">
         <v>128</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>129</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>130</v>
       </c>
-      <c r="AH3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ3" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AK3" s="3">
         <v>45122</v>
@@ -1821,7 +1820,7 @@
         <v>45249.372916666667</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1902,28 +1901,28 @@
         <v>121</v>
       </c>
       <c r="AC4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD4" t="s">
         <v>122</v>
       </c>
-      <c r="AD4" t="s">
-        <v>123</v>
-      </c>
       <c r="AE4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG4" t="s">
         <v>128</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>129</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>130</v>
       </c>
-      <c r="AH4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ4" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK4" s="3">
         <v>49024</v>
@@ -1967,7 +1966,7 @@
         <v>45242.450694444444</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -2042,34 +2041,34 @@
         <v>369</v>
       </c>
       <c r="AA5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC5" t="s">
         <v>124</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>125</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>128</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>129</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AI5" t="s">
         <v>130</v>
       </c>
-      <c r="AH5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ5" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AK5" s="3">
         <v>51388</v>
@@ -2113,7 +2112,7 @@
         <v>45242.415972222225</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -2149,7 +2148,7 @@
         <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
@@ -2185,37 +2184,37 @@
         <v>63</v>
       </c>
       <c r="Z6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB6" t="s">
         <v>128</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>129</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>130</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>132</v>
       </c>
       <c r="AE6" s="3">
         <v>369</v>
       </c>
       <c r="AF6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH6" t="s">
         <v>124</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>125</v>
       </c>
-      <c r="AH6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ6" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AK6" s="3">
         <v>55267</v>
@@ -2259,7 +2258,7 @@
         <v>45242.375694444447</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -2334,31 +2333,31 @@
         <v>369</v>
       </c>
       <c r="AA7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC7" t="s">
         <v>124</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>125</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>127</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AG7" t="s">
         <v>128</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>129</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>130</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>132</v>
       </c>
       <c r="AJ7" s="4" t="s">
         <v>20</v>
@@ -2405,7 +2404,7 @@
         <v>45242.345138888886</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2477,37 +2476,37 @@
         <v>80</v>
       </c>
       <c r="Z8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB8" t="s">
         <v>128</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>129</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>130</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>132</v>
       </c>
       <c r="AE8" s="3">
         <v>369</v>
       </c>
       <c r="AF8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH8" t="s">
         <v>124</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AI8" t="s">
         <v>125</v>
       </c>
-      <c r="AH8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ8" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AK8" s="3">
         <v>48178</v>
@@ -2551,7 +2550,7 @@
         <v>45241.484027777777</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2632,28 +2631,28 @@
         <v>121</v>
       </c>
       <c r="AC9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD9" t="s">
         <v>122</v>
       </c>
-      <c r="AD9" t="s">
-        <v>123</v>
-      </c>
       <c r="AE9" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH9" t="s">
         <v>133</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AI9" t="s">
         <v>134</v>
       </c>
-      <c r="AG9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ9" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK9" s="3">
         <v>64526</v>
@@ -2697,7 +2696,7 @@
         <v>45241.451388888891</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2769,19 +2768,19 @@
         <v>109</v>
       </c>
       <c r="Z10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC10" t="s">
         <v>133</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>134</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>137</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>119</v>
@@ -2793,13 +2792,13 @@
         <v>121</v>
       </c>
       <c r="AH10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI10" t="s">
         <v>122</v>
       </c>
-      <c r="AI10" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ10" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AK10" s="3">
         <v>56853</v>
@@ -2843,7 +2842,7 @@
         <v>45241.417361111111</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -2924,28 +2923,28 @@
         <v>121</v>
       </c>
       <c r="AC11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD11" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" t="s">
-        <v>123</v>
-      </c>
       <c r="AE11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH11" t="s">
         <v>133</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AI11" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ11" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AK11" s="3">
         <v>52694</v>
@@ -2989,7 +2988,7 @@
         <v>45241.379861111112</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3061,19 +3060,19 @@
         <v>96</v>
       </c>
       <c r="Z12" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC12" t="s">
         <v>133</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>134</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>137</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>119</v>
@@ -3085,13 +3084,13 @@
         <v>121</v>
       </c>
       <c r="AH12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI12" t="s">
         <v>122</v>
       </c>
-      <c r="AI12" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ12" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AK12" s="3">
         <v>73260</v>
@@ -3135,7 +3134,7 @@
         <v>45241.345138888886</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3216,28 +3215,28 @@
         <v>121</v>
       </c>
       <c r="AC13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD13" t="s">
         <v>122</v>
       </c>
-      <c r="AD13" t="s">
-        <v>123</v>
-      </c>
       <c r="AE13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH13" t="s">
         <v>133</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AI13" t="s">
         <v>134</v>
       </c>
-      <c r="AG13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ13" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AK13" s="3">
         <v>59187</v>
@@ -3281,7 +3280,7 @@
         <v>45235.409722222219</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>22</v>
@@ -3353,37 +3352,37 @@
         <v>52</v>
       </c>
       <c r="Z14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD14" t="s">
         <v>138</v>
       </c>
-      <c r="AA14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>142</v>
-      </c>
       <c r="AE14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG14" t="s">
         <v>128</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>129</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AI14" t="s">
         <v>130</v>
       </c>
-      <c r="AH14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ14" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AK14" s="3">
         <v>40096</v>
@@ -3427,7 +3426,7 @@
         <v>45235.373611111114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
@@ -3499,37 +3498,37 @@
         <v>63</v>
       </c>
       <c r="Z15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD15" t="s">
         <v>138</v>
       </c>
-      <c r="AA15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>142</v>
-      </c>
       <c r="AE15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG15" t="s">
         <v>128</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>129</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AI15" t="s">
         <v>130</v>
       </c>
-      <c r="AH15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ15" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK15" s="3">
         <v>49147</v>
@@ -3573,7 +3572,7 @@
         <v>45235.341666666667</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -3645,37 +3644,37 @@
         <v>45</v>
       </c>
       <c r="Z16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD16" t="s">
         <v>138</v>
       </c>
-      <c r="AA16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>142</v>
-      </c>
       <c r="AE16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG16" t="s">
         <v>128</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>129</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AI16" t="s">
         <v>130</v>
       </c>
-      <c r="AH16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ16" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AK16" s="3">
         <v>41532</v>
@@ -3719,7 +3718,7 @@
         <v>45234.44027777778</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
@@ -3791,37 +3790,37 @@
         <v>70</v>
       </c>
       <c r="Z17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD17" t="s">
         <v>143</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>147</v>
       </c>
       <c r="AE17" s="3">
         <v>369</v>
       </c>
       <c r="AF17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH17" t="s">
         <v>124</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AI17" t="s">
         <v>125</v>
       </c>
-      <c r="AH17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ17" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AK17" s="3">
         <v>60151</v>
@@ -3865,7 +3864,7 @@
         <v>45234.408333333333</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
@@ -3937,37 +3936,37 @@
         <v>70</v>
       </c>
       <c r="Z18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD18" t="s">
         <v>143</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>147</v>
       </c>
       <c r="AE18" s="3">
         <v>369</v>
       </c>
       <c r="AF18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH18" t="s">
         <v>124</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AI18" t="s">
         <v>125</v>
       </c>
-      <c r="AH18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ18" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AK18" s="3">
         <v>44433</v>
@@ -4011,7 +4010,7 @@
         <v>45234.376388888886</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
@@ -4086,31 +4085,31 @@
         <v>369</v>
       </c>
       <c r="AA19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC19" t="s">
         <v>124</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>125</v>
       </c>
-      <c r="AC19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>127</v>
-      </c>
       <c r="AE19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI19" t="s">
         <v>143</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>147</v>
       </c>
       <c r="AJ19" s="4" t="s">
         <v>24</v>
@@ -4157,7 +4156,7 @@
         <v>45234.342361111114</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -4232,34 +4231,34 @@
         <v>369</v>
       </c>
       <c r="AA20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC20" t="s">
         <v>124</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>125</v>
       </c>
-      <c r="AC20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>127</v>
-      </c>
       <c r="AE20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI20" t="s">
         <v>143</v>
       </c>
-      <c r="AF20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ20" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AK20" s="3">
         <v>48069</v>
@@ -4303,7 +4302,7 @@
         <v>45233.495833333334</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
@@ -4375,37 +4374,37 @@
         <v>51</v>
       </c>
       <c r="Z21" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC21" t="s">
         <v>133</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
         <v>134</v>
       </c>
-      <c r="AB21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>137</v>
-      </c>
       <c r="AE21" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AF21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AK21" s="3">
         <v>63411</v>
@@ -4449,7 +4448,7 @@
         <v>45233.457638888889</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -4521,37 +4520,37 @@
         <v>51</v>
       </c>
       <c r="Z22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC22" t="s">
         <v>133</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>134</v>
       </c>
-      <c r="AB22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>137</v>
-      </c>
       <c r="AE22" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AF22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AK22" s="3">
         <v>60190</v>
@@ -4595,7 +4594,7 @@
         <v>45233.411805555559</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>25</v>
@@ -4667,37 +4666,37 @@
         <v>82</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AA23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AC23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AD23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AE23" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH23" t="s">
         <v>133</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AI23" t="s">
         <v>134</v>
       </c>
-      <c r="AG23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ23" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AK23" s="3">
         <v>90253</v>
@@ -4741,7 +4740,7 @@
         <v>45233.379166666666</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>21</v>
@@ -4813,37 +4812,37 @@
         <v>67</v>
       </c>
       <c r="Z24" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC24" t="s">
         <v>133</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AD24" t="s">
         <v>134</v>
       </c>
-      <c r="AB24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>137</v>
-      </c>
       <c r="AE24" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AF24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AK24" s="3">
         <v>58761</v>
@@ -4887,7 +4886,7 @@
         <v>45233.341666666667</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -4959,37 +4958,37 @@
         <v>52</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AA25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AC25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AD25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AE25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH25" t="s">
         <v>133</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AI25" t="s">
         <v>134</v>
       </c>
-      <c r="AG25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ25" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AK25" s="3">
         <v>48578</v>
@@ -5033,7 +5032,7 @@
         <v>45232.420138888891</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -5105,19 +5104,19 @@
         <v>109</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AB26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AC26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AD26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE26" s="3" t="s">
         <v>119</v>
@@ -5129,13 +5128,13 @@
         <v>121</v>
       </c>
       <c r="AH26" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI26" t="s">
         <v>122</v>
       </c>
-      <c r="AI26" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ26" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AK26" s="3">
         <v>40879</v>
@@ -5179,7 +5178,7 @@
         <v>45232.383333333331</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -5251,19 +5250,19 @@
         <v>67</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA27" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AB27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AC27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AD27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>119</v>
@@ -5275,13 +5274,13 @@
         <v>121</v>
       </c>
       <c r="AH27" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI27" t="s">
         <v>122</v>
       </c>
-      <c r="AI27" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ27" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AK27" s="3">
         <v>53863</v>
@@ -5325,7 +5324,7 @@
         <v>45232.342361111114</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -5397,19 +5396,19 @@
         <v>67</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AB28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AC28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AD28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE28" s="3" t="s">
         <v>119</v>
@@ -5421,13 +5420,13 @@
         <v>121</v>
       </c>
       <c r="AH28" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI28" t="s">
         <v>122</v>
       </c>
-      <c r="AI28" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ28" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AK28" s="3">
         <v>65145</v>
@@ -5471,7 +5470,7 @@
         <v>45228.45</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
@@ -5543,37 +5542,37 @@
         <v>40</v>
       </c>
       <c r="Z29" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC29" t="s">
         <v>133</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
         <v>134</v>
       </c>
-      <c r="AB29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>137</v>
-      </c>
       <c r="AE29" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AF29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AH29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AI29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AK29" s="3">
         <v>57612</v>
@@ -5617,7 +5616,7 @@
         <v>45228.405555555553</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -5689,37 +5688,37 @@
         <v>70</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE30" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH30" t="s">
         <v>133</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AI30" t="s">
         <v>134</v>
       </c>
-      <c r="AG30" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ30" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AK30" s="3">
         <v>83973</v>
@@ -5763,7 +5762,7 @@
         <v>45228.365277777775</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -5835,37 +5834,37 @@
         <v>67</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE31" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH31" t="s">
         <v>133</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AI31" t="s">
         <v>134</v>
       </c>
-      <c r="AG31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ31" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AK31" s="3">
         <v>54139</v>
@@ -5909,7 +5908,7 @@
         <v>45228.331944444442</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
@@ -5981,19 +5980,19 @@
         <v>96</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AA32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AB32" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AC32" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AD32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AE32" s="3" t="s">
         <v>119</v>
@@ -6005,13 +6004,13 @@
         <v>121</v>
       </c>
       <c r="AH32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI32" t="s">
         <v>122</v>
       </c>
-      <c r="AI32" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ32" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AK32" s="3">
         <v>40109</v>
@@ -6055,7 +6054,7 @@
         <v>45228.29583333333</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
@@ -6136,28 +6135,28 @@
         <v>121</v>
       </c>
       <c r="AC33" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD33" t="s">
         <v>122</v>
       </c>
-      <c r="AD33" t="s">
-        <v>123</v>
-      </c>
       <c r="AE33" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG33" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AH33" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AI33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AK33" s="3">
         <v>63375</v>
@@ -6201,7 +6200,7 @@
         <v>45228.259027777778</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
@@ -6273,19 +6272,19 @@
         <v>52</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AA34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AB34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AC34" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AD34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AE34" s="3" t="s">
         <v>119</v>
@@ -6297,13 +6296,13 @@
         <v>121</v>
       </c>
       <c r="AH34" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI34" t="s">
         <v>122</v>
       </c>
-      <c r="AI34" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ34" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AK34" s="3">
         <v>54145</v>
@@ -6347,7 +6346,7 @@
         <v>45228.211111111108</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>29</v>
@@ -6419,37 +6418,37 @@
         <v>75</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AA35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AB35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AD35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AE35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI35" t="s">
         <v>143</v>
       </c>
-      <c r="AF35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ35" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AK35" s="3">
         <v>77706</v>
@@ -6493,7 +6492,7 @@
         <v>45228.173611111109</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -6565,37 +6564,37 @@
         <v>51</v>
       </c>
       <c r="Z36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD36" t="s">
         <v>143</v>
       </c>
-      <c r="AA36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>147</v>
-      </c>
       <c r="AE36" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AH36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AI36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AK36" s="3">
         <v>70428</v>
@@ -6639,7 +6638,7 @@
         <v>45227.40625</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>21</v>
@@ -6711,37 +6710,37 @@
         <v>47</v>
       </c>
       <c r="Z37" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC37" t="s">
         <v>133</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AD37" t="s">
         <v>134</v>
       </c>
-      <c r="AB37" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>137</v>
-      </c>
       <c r="AE37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG37" t="s">
         <v>128</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AH37" t="s">
         <v>129</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AI37" t="s">
         <v>130</v>
       </c>
-      <c r="AH37" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ37" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK37" s="3">
         <v>49962</v>
@@ -6785,7 +6784,7 @@
         <v>45227.372916666667</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>18</v>
@@ -6857,37 +6856,37 @@
         <v>51</v>
       </c>
       <c r="Z38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB38" t="s">
         <v>128</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AC38" t="s">
         <v>129</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AD38" t="s">
         <v>130</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AE38" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF38" t="s">
         <v>131</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AG38" t="s">
         <v>132</v>
       </c>
-      <c r="AE38" s="3" t="s">
+      <c r="AH38" t="s">
         <v>133</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AI38" t="s">
         <v>134</v>
       </c>
-      <c r="AG38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ38" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AK38" s="3">
         <v>57171</v>
@@ -6931,7 +6930,7 @@
         <v>45227.336805555555</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
@@ -7003,37 +7002,37 @@
         <v>70</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB39" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD39" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AF39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AH39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AI39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AK39" s="3">
         <v>46160</v>
@@ -7077,7 +7076,7 @@
         <v>45227.3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -7149,37 +7148,37 @@
         <v>51</v>
       </c>
       <c r="Z40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AF40" t="s">
         <v>154</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AG40" t="s">
         <v>155</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AH40" t="s">
         <v>156</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AI40" t="s">
         <v>157</v>
       </c>
-      <c r="AE40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>162</v>
-      </c>
       <c r="AJ40" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AK40" s="3">
         <v>62010</v>
@@ -7223,7 +7222,7 @@
         <v>45226.444444444445</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>22</v>
@@ -7295,37 +7294,37 @@
         <v>80</v>
       </c>
       <c r="Z41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD41" t="s">
         <v>138</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AE41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AF41" t="s">
         <v>140</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AG41" t="s">
         <v>141</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AH41" t="s">
         <v>142</v>
       </c>
-      <c r="AE41" s="3" t="s">
+      <c r="AI41" t="s">
         <v>143</v>
       </c>
-      <c r="AF41" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ41" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AK41" s="3">
         <v>49884</v>
@@ -7369,7 +7368,7 @@
         <v>45226.407638888886</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
@@ -7441,37 +7440,37 @@
         <v>102</v>
       </c>
       <c r="Z42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD42" t="s">
         <v>143</v>
       </c>
-      <c r="AA42" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>147</v>
-      </c>
       <c r="AE42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI42" t="s">
         <v>138</v>
       </c>
-      <c r="AF42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>142</v>
-      </c>
       <c r="AJ42" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AK42" s="3">
         <v>65080</v>
@@ -7515,7 +7514,7 @@
         <v>45226.368750000001</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
@@ -7587,37 +7586,37 @@
         <v>52</v>
       </c>
       <c r="Z43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD43" t="s">
         <v>143</v>
       </c>
-      <c r="AA43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>147</v>
-      </c>
       <c r="AE43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI43" t="s">
         <v>138</v>
       </c>
-      <c r="AF43" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>142</v>
-      </c>
       <c r="AJ43" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AK43" s="3">
         <v>58245</v>
@@ -7661,7 +7660,7 @@
         <v>45226.334027777775</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>30</v>
@@ -7733,37 +7732,37 @@
         <v>51</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AA44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AB44" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AC44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD44" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF44" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG44" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AH44" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AI44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AK44" s="3">
         <v>39854</v>
@@ -7807,7 +7806,7 @@
         <v>45226.300694444442</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
@@ -7879,37 +7878,37 @@
         <v>70</v>
       </c>
       <c r="Z45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF45" t="s">
         <v>168</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AG45" t="s">
         <v>169</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AH45" t="s">
         <v>170</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AI45" t="s">
         <v>171</v>
       </c>
-      <c r="AD45" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE45" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>177</v>
-      </c>
       <c r="AJ45" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AK45" s="3">
         <v>52392</v>
@@ -7953,7 +7952,7 @@
         <v>45225.454861111109</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>31</v>
@@ -7992,7 +7991,7 @@
         <v>73</v>
       </c>
       <c r="O46" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>53</v>
@@ -8025,19 +8024,19 @@
         <v>52</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AA46" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AB46" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AC46" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AD46" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>119</v>
@@ -8049,13 +8048,13 @@
         <v>121</v>
       </c>
       <c r="AH46" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI46" t="s">
         <v>122</v>
       </c>
-      <c r="AI46" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ46" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AK46" s="3">
         <v>45439</v>
@@ -8099,7 +8098,7 @@
         <v>45225.415277777778</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>31</v>
@@ -8171,19 +8170,19 @@
         <v>52</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AA47" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AB47" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AC47" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AD47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AE47" s="3" t="s">
         <v>119</v>
@@ -8195,13 +8194,13 @@
         <v>121</v>
       </c>
       <c r="AH47" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI47" t="s">
         <v>122</v>
       </c>
-      <c r="AI47" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ47" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AK47" s="3">
         <v>54127</v>
@@ -8245,7 +8244,7 @@
         <v>45225.374305555553</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>32</v>
@@ -8317,37 +8316,37 @@
         <v>51</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB48" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AC48" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AD48" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF48" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG48" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AH48" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AI48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AK48" s="3">
         <v>58897</v>
@@ -8391,7 +8390,7 @@
         <v>45225.341666666667</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>28</v>
@@ -8463,37 +8462,37 @@
         <v>51</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AA49" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AB49" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AC49" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AD49" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF49" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AG49" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AH49" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AI49" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AK49" s="3">
         <v>59092</v>
@@ -8537,7 +8536,7 @@
         <v>45225.299305555556</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>32</v>
@@ -8609,37 +8608,37 @@
         <v>70</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA50" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB50" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AC50" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AD50" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AE50" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF50" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG50" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AH50" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AI50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AJ50" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AK50" s="3">
         <v>82088</v>
@@ -8683,7 +8682,7 @@
         <v>45222.441666666666</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>33</v>
@@ -8707,13 +8706,13 @@
         <v>94</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L51" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M51" t="s">
         <v>48</v>
@@ -8755,37 +8754,37 @@
         <v>80</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="AA51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AB51" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AC51" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AD51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF51" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG51" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AH51" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AI51" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AJ51" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AK51" s="3">
         <v>40238</v>
@@ -8829,7 +8828,7 @@
         <v>45222.410416666666</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>29</v>
@@ -8844,7 +8843,7 @@
         <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
@@ -8853,7 +8852,7 @@
         <v>106</v>
       </c>
       <c r="J52" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>44</v>
@@ -8901,37 +8900,37 @@
         <v>73</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AA52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AB52" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AD52" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="AF52" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AG52" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AH52" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AI52" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AJ52" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AK52" s="3">
         <v>52046</v>
@@ -8975,7 +8974,7 @@
         <v>45222.365972222222</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>30</v>
@@ -9047,37 +9046,37 @@
         <v>70</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AA53" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AB53" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AC53" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD53" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AF53" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AG53" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="AH53" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="AI53" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AJ53" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AK53" s="3">
         <v>69267</v>
@@ -9121,7 +9120,7 @@
         <v>45222.334027777775</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>34</v>
@@ -9193,37 +9192,37 @@
         <v>52</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AA54" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AB54" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="AC54" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="AD54" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AE54" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF54" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG54" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AH54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AI54" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AJ54" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AK54" s="3">
         <v>49326</v>
@@ -9267,7 +9266,7 @@
         <v>45222.3</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>34</v>
@@ -9339,37 +9338,37 @@
         <v>70</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AA55" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AB55" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="AC55" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="AD55" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AE55" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF55" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG55" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AH55" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AI55" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AJ55" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AK55" s="3">
         <v>45274</v>
@@ -9413,7 +9412,7 @@
         <v>45221.42083333333</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -9485,19 +9484,19 @@
         <v>102</v>
       </c>
       <c r="Z56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD56" t="s">
         <v>143</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>147</v>
       </c>
       <c r="AE56" s="3" t="s">
         <v>119</v>
@@ -9509,13 +9508,13 @@
         <v>121</v>
       </c>
       <c r="AH56" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI56" t="s">
         <v>122</v>
       </c>
-      <c r="AI56" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ56" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AK56" s="3">
         <v>76480</v>
@@ -9559,7 +9558,7 @@
         <v>45221.381249999999</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>21</v>
@@ -9631,37 +9630,37 @@
         <v>80</v>
       </c>
       <c r="Z57" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC57" t="s">
         <v>133</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AD57" t="s">
         <v>134</v>
       </c>
-      <c r="AB57" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>137</v>
-      </c>
       <c r="AE57" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF57" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG57" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AH57" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AI57" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AJ57" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AK57" s="3">
         <v>64084</v>
@@ -9705,7 +9704,7 @@
         <v>45221.331944444442</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -9777,37 +9776,37 @@
         <v>80</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA58" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AB58" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AC58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AD58" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF58" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AG58" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AH58" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AI58" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AJ58" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AK58" s="3">
         <v>79248</v>
@@ -9851,7 +9850,7 @@
         <v>45221.299305555556</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>18</v>
@@ -9923,37 +9922,37 @@
         <v>70</v>
       </c>
       <c r="Z59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB59" t="s">
         <v>128</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AC59" t="s">
         <v>129</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AD59" t="s">
         <v>130</v>
       </c>
-      <c r="AC59" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>132</v>
-      </c>
       <c r="AE59" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF59" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AG59" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AH59" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AI59" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AJ59" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AK59" s="3">
         <v>48782</v>
@@ -9997,7 +9996,7 @@
         <v>45220.436111111114</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>27</v>
@@ -10069,37 +10068,37 @@
         <v>70</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA60" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB60" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC60" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE60" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AF60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG60" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI60" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ60" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK60" s="3">
         <v>52798</v>
@@ -10143,7 +10142,7 @@
         <v>45220.401388888888</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>27</v>
@@ -10215,37 +10214,37 @@
         <v>70</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA61" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB61" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC61" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD61" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE61" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AF61" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH61" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ61" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AK61" s="3">
         <v>53369</v>
@@ -10289,7 +10288,7 @@
         <v>45220.365972222222</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>19</v>
@@ -10364,34 +10363,34 @@
         <v>369</v>
       </c>
       <c r="AA62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC62" t="s">
         <v>124</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AD62" t="s">
         <v>125</v>
       </c>
-      <c r="AC62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>127</v>
-      </c>
       <c r="AE62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI62" t="s">
         <v>138</v>
       </c>
-      <c r="AF62" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>142</v>
-      </c>
       <c r="AJ62" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AK62" s="3">
         <v>52486</v>
@@ -10435,7 +10434,7 @@
         <v>45220.331944444442</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>22</v>
@@ -10507,37 +10506,37 @@
         <v>51</v>
       </c>
       <c r="Z63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD63" t="s">
         <v>138</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>142</v>
       </c>
       <c r="AE63" s="3">
         <v>369</v>
       </c>
       <c r="AF63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH63" t="s">
         <v>124</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AI63" t="s">
         <v>125</v>
       </c>
-      <c r="AH63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ63" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AK63" s="3">
         <v>57330</v>
@@ -10581,7 +10580,7 @@
         <v>45220.299305555556</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>19</v>
@@ -10656,34 +10655,34 @@
         <v>369</v>
       </c>
       <c r="AA64" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC64" t="s">
         <v>124</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AD64" t="s">
         <v>125</v>
       </c>
-      <c r="AC64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>127</v>
-      </c>
       <c r="AE64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI64" t="s">
         <v>138</v>
       </c>
-      <c r="AF64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>142</v>
-      </c>
       <c r="AJ64" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AK64" s="3">
         <v>55280</v>
@@ -10727,7 +10726,7 @@
         <v>45219.508333333331</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>29</v>
@@ -10799,37 +10798,37 @@
         <v>80</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AA65" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AB65" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AC65" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AD65" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AE65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI65" t="s">
         <v>143</v>
       </c>
-      <c r="AF65" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ65" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AK65" s="3">
         <v>51313</v>
@@ -10873,7 +10872,7 @@
         <v>45219.474305555559</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>19</v>
@@ -10948,34 +10947,34 @@
         <v>369</v>
       </c>
       <c r="AA66" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC66" t="s">
         <v>124</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AD66" t="s">
         <v>125</v>
       </c>
-      <c r="AC66" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>127</v>
-      </c>
       <c r="AE66" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH66" t="s">
         <v>133</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AI66" t="s">
         <v>134</v>
       </c>
-      <c r="AG66" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ66" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AK66" s="3">
         <v>52171</v>
@@ -11019,7 +11018,7 @@
         <v>45219.427777777775</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>27</v>
@@ -11091,19 +11090,19 @@
         <v>102</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB67" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC67" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD67" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AE67" s="3" t="s">
         <v>119</v>
@@ -11115,13 +11114,13 @@
         <v>121</v>
       </c>
       <c r="AH67" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI67" t="s">
         <v>122</v>
       </c>
-      <c r="AI67" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ67" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AK67" s="3">
         <v>75520</v>
@@ -11160,12 +11159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45219.38958333333</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>25</v>
@@ -11237,37 +11236,37 @@
         <v>80</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AA68" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AC68" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AD68" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AE68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG68" t="s">
         <v>128</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AH68" t="s">
         <v>129</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AI68" t="s">
         <v>130</v>
       </c>
-      <c r="AH68" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ68" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK68" s="3">
         <v>58370</v>
@@ -11311,7 +11310,7 @@
         <v>45219.353472222225</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>28</v>
@@ -11383,37 +11382,37 @@
         <v>70</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AA69" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AB69" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AC69" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AD69" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE69" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AE69" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="AF69" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG69" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AH69" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AI69" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AJ69" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AK69" s="3">
         <v>49855</v>
@@ -11452,12 +11451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45219.314583333333</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>31</v>
@@ -11472,7 +11471,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H70" t="s">
         <v>48</v>
@@ -11529,37 +11528,37 @@
         <v>80</v>
       </c>
       <c r="Z70" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AA70" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AB70" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AC70" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE70" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF70" t="s">
         <v>181</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AG70" t="s">
         <v>182</v>
       </c>
-      <c r="AE70" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>190</v>
-      </c>
       <c r="AH70" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AI70" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AJ70" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AK70" s="3">
         <v>65500</v>
@@ -11603,7 +11602,7 @@
         <v>45219.285416666666</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>32</v>
@@ -11675,37 +11674,37 @@
         <v>80</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA71" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB71" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AC71" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AD71" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AE71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI71" t="s">
         <v>138</v>
       </c>
-      <c r="AF71" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>142</v>
-      </c>
       <c r="AJ71" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AK71" s="3">
         <v>55531</v>
@@ -11749,7 +11748,7 @@
         <v>45219.21597222222</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>26</v>
@@ -11821,37 +11820,37 @@
         <v>51</v>
       </c>
       <c r="Z72" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA72" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AB72" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AC72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AD72" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE72" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AF72" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AG72" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="AH72" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="AI72" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AJ72" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AK72" s="3">
         <v>60491</v>
@@ -11895,7 +11894,7 @@
         <v>45218.522916666669</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
@@ -11967,37 +11966,37 @@
         <v>70</v>
       </c>
       <c r="Z73" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC73" t="s">
         <v>133</v>
       </c>
-      <c r="AA73" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>136</v>
-      </c>
       <c r="AD73" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AE73" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI73" t="s">
         <v>143</v>
       </c>
-      <c r="AF73" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>147</v>
-      </c>
       <c r="AJ73" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AK73" s="3">
         <v>85814</v>
@@ -12041,7 +12040,7 @@
         <v>45218.48333333333</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>22</v>
@@ -12113,37 +12112,37 @@
         <v>51</v>
       </c>
       <c r="Z74" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD74" t="s">
         <v>138</v>
       </c>
-      <c r="AA74" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>142</v>
-      </c>
       <c r="AE74" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AH74" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AI74" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AJ74" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AK74" s="3">
         <v>60844</v>
@@ -12187,7 +12186,7 @@
         <v>45218.444444444445</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
@@ -12268,28 +12267,28 @@
         <v>121</v>
       </c>
       <c r="AC75" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD75" t="s">
         <v>122</v>
       </c>
-      <c r="AD75" t="s">
-        <v>123</v>
-      </c>
       <c r="AE75" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AF75" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG75" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AH75" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AI75" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ75" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AK75" s="3">
         <v>61041</v>
@@ -12333,7 +12332,7 @@
         <v>45218.392361111109</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>27</v>
@@ -12372,7 +12371,7 @@
         <v>57</v>
       </c>
       <c r="O76" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>68</v>
@@ -12405,37 +12404,37 @@
         <v>80</v>
       </c>
       <c r="Z76" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA76" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB76" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AC76" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AD76" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE76" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="AF76" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG76" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AH76" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AI76" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AJ76" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AK76" s="3">
         <v>80837</v>
@@ -12474,12 +12473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45218.354166666664</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>33</v>
@@ -12506,7 +12505,7 @@
         <v>68</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L77" t="s">
         <v>48</v>
@@ -12551,37 +12550,37 @@
         <v>80</v>
       </c>
       <c r="Z77" s="3" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="AA77" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AB77" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AC77" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AD77" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AE77" s="3">
         <v>369</v>
       </c>
       <c r="AF77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH77" t="s">
         <v>124</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AI77" t="s">
         <v>125</v>
       </c>
-      <c r="AH77" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ77" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AK77" s="3">
         <v>46972</v>
@@ -12620,12 +12619,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45218.30972222222</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>25</v>
@@ -12697,37 +12696,37 @@
         <v>118</v>
       </c>
       <c r="Z78" s="3" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="AA78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AB78" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AC78" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AD78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AE78" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF78" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG78" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AH78" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AI78" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AJ78" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AK78" s="3">
         <v>50430</v>
@@ -12771,7 +12770,7 @@
         <v>45218.268750000003</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>32</v>
@@ -12843,34 +12842,34 @@
         <v>70</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA79" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB79" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AC79" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="AD79" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AE79" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF79" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AG79" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AH79" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AI79" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AJ79" s="4" t="s">
         <v>35</v>
@@ -12917,7 +12916,7 @@
         <v>45218.219444444447</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>18</v>
@@ -12989,37 +12988,37 @@
         <v>51</v>
       </c>
       <c r="Z80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB80" t="s">
         <v>128</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AC80" t="s">
         <v>129</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AD80" t="s">
         <v>130</v>
       </c>
-      <c r="AC80" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>132</v>
-      </c>
       <c r="AE80" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AF80" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AG80" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="AH80" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="AI80" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AJ80" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK80" s="3">
         <v>67196</v>
@@ -13063,2580 +13062,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F206D8-4B20-4094-B77B-F36BF0ECF6E3}">
-  <dimension ref="A1:N80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" t="s">
-        <v>95</v>
-      </c>
-      <c r="N22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" t="s">
-        <v>65</v>
-      </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" t="s">
-        <v>75</v>
-      </c>
-      <c r="N34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" t="s">
-        <v>73</v>
-      </c>
-      <c r="N37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38" t="s">
-        <v>74</v>
-      </c>
-      <c r="L38" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" t="s">
-        <v>80</v>
-      </c>
-      <c r="N38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" t="s">
-        <v>81</v>
-      </c>
-      <c r="M39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" t="s">
-        <v>80</v>
-      </c>
-      <c r="M40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L42" t="s">
-        <v>66</v>
-      </c>
-      <c r="M42" t="s">
-        <v>81</v>
-      </c>
-      <c r="N42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L43" t="s">
-        <v>38</v>
-      </c>
-      <c r="M43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K44" t="s">
-        <v>74</v>
-      </c>
-      <c r="L44" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" t="s">
-        <v>90</v>
-      </c>
-      <c r="N44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K45" t="s">
-        <v>80</v>
-      </c>
-      <c r="L45" t="s">
-        <v>74</v>
-      </c>
-      <c r="M45" t="s">
-        <v>66</v>
-      </c>
-      <c r="N45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" t="s">
-        <v>64</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K46" t="s">
-        <v>71</v>
-      </c>
-      <c r="L46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M46" t="s">
-        <v>73</v>
-      </c>
-      <c r="N46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47" t="s">
-        <v>74</v>
-      </c>
-      <c r="L47" t="s">
-        <v>38</v>
-      </c>
-      <c r="M47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K48" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" t="s">
-        <v>91</v>
-      </c>
-      <c r="N48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" t="s">
-        <v>75</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" t="s">
-        <v>74</v>
-      </c>
-      <c r="L49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" t="s">
-        <v>58</v>
-      </c>
-      <c r="M50" t="s">
-        <v>62</v>
-      </c>
-      <c r="N50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" t="s">
-        <v>292</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51" t="s">
-        <v>293</v>
-      </c>
-      <c r="L51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s">
-        <v>294</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" t="s">
-        <v>74</v>
-      </c>
-      <c r="L52" t="s">
-        <v>71</v>
-      </c>
-      <c r="M52" t="s">
-        <v>57</v>
-      </c>
-      <c r="N52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53" t="s">
-        <v>65</v>
-      </c>
-      <c r="L53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53" t="s">
-        <v>75</v>
-      </c>
-      <c r="N53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K54" t="s">
-        <v>92</v>
-      </c>
-      <c r="L54" t="s">
-        <v>81</v>
-      </c>
-      <c r="M54" t="s">
-        <v>71</v>
-      </c>
-      <c r="N54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K55" t="s">
-        <v>92</v>
-      </c>
-      <c r="L55" t="s">
-        <v>81</v>
-      </c>
-      <c r="M55" t="s">
-        <v>44</v>
-      </c>
-      <c r="N55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K56" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M56" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K57" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" t="s">
-        <v>74</v>
-      </c>
-      <c r="M57" t="s">
-        <v>92</v>
-      </c>
-      <c r="N57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" t="s">
-        <v>112</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K58" t="s">
-        <v>57</v>
-      </c>
-      <c r="L58" t="s">
-        <v>74</v>
-      </c>
-      <c r="M58" t="s">
-        <v>53</v>
-      </c>
-      <c r="N58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K59" t="s">
-        <v>52</v>
-      </c>
-      <c r="L59" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59" t="s">
-        <v>75</v>
-      </c>
-      <c r="N59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K60" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M60" t="s">
-        <v>46</v>
-      </c>
-      <c r="N60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" t="s">
-        <v>65</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M61" t="s">
-        <v>53</v>
-      </c>
-      <c r="N61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" t="s">
-        <v>65</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K62" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" t="s">
-        <v>56</v>
-      </c>
-      <c r="N62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s">
-        <v>48</v>
-      </c>
-      <c r="L63" t="s">
-        <v>65</v>
-      </c>
-      <c r="M63" t="s">
-        <v>66</v>
-      </c>
-      <c r="N63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" t="s">
-        <v>70</v>
-      </c>
-      <c r="M64" t="s">
-        <v>56</v>
-      </c>
-      <c r="N64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K65" t="s">
-        <v>61</v>
-      </c>
-      <c r="L65" t="s">
-        <v>44</v>
-      </c>
-      <c r="M65" t="s">
-        <v>95</v>
-      </c>
-      <c r="N65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L66" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" t="s">
-        <v>62</v>
-      </c>
-      <c r="N66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" t="s">
-        <v>57</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K67" t="s">
-        <v>44</v>
-      </c>
-      <c r="L67" t="s">
-        <v>42</v>
-      </c>
-      <c r="M67" t="s">
-        <v>68</v>
-      </c>
-      <c r="N67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K68" t="s">
-        <v>54</v>
-      </c>
-      <c r="L68" t="s">
-        <v>61</v>
-      </c>
-      <c r="M68" t="s">
-        <v>38</v>
-      </c>
-      <c r="N68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" t="s">
-        <v>92</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" t="s">
-        <v>48</v>
-      </c>
-      <c r="L69" t="s">
-        <v>88</v>
-      </c>
-      <c r="M69" t="s">
-        <v>115</v>
-      </c>
-      <c r="N69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" t="s">
-        <v>293</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" t="s">
-        <v>106</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" t="s">
-        <v>70</v>
-      </c>
-      <c r="L70" t="s">
-        <v>44</v>
-      </c>
-      <c r="M70" t="s">
-        <v>71</v>
-      </c>
-      <c r="N70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K71" t="s">
-        <v>48</v>
-      </c>
-      <c r="L71" t="s">
-        <v>71</v>
-      </c>
-      <c r="M71" t="s">
-        <v>77</v>
-      </c>
-      <c r="N71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" t="s">
-        <v>52</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" t="s">
-        <v>61</v>
-      </c>
-      <c r="M72" t="s">
-        <v>72</v>
-      </c>
-      <c r="N72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" t="s">
-        <v>54</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" t="s">
-        <v>44</v>
-      </c>
-      <c r="L73" t="s">
-        <v>66</v>
-      </c>
-      <c r="M73" t="s">
-        <v>80</v>
-      </c>
-      <c r="N73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K74" t="s">
-        <v>65</v>
-      </c>
-      <c r="L74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M74" t="s">
-        <v>62</v>
-      </c>
-      <c r="N74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K75" t="s">
-        <v>48</v>
-      </c>
-      <c r="L75" t="s">
-        <v>54</v>
-      </c>
-      <c r="M75" t="s">
-        <v>75</v>
-      </c>
-      <c r="N75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" t="s">
-        <v>65</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L76" t="s">
-        <v>53</v>
-      </c>
-      <c r="M76" t="s">
-        <v>57</v>
-      </c>
-      <c r="N76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" t="s">
-        <v>68</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="K77" t="s">
-        <v>48</v>
-      </c>
-      <c r="L77" t="s">
-        <v>42</v>
-      </c>
-      <c r="M77" t="s">
-        <v>38</v>
-      </c>
-      <c r="N77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E78" t="s">
-        <v>52</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K78" t="s">
-        <v>70</v>
-      </c>
-      <c r="L78" t="s">
-        <v>48</v>
-      </c>
-      <c r="M78" t="s">
-        <v>88</v>
-      </c>
-      <c r="N78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" t="s">
-        <v>43</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K79" t="s">
-        <v>94</v>
-      </c>
-      <c r="L79" t="s">
-        <v>42</v>
-      </c>
-      <c r="M79" t="s">
-        <v>75</v>
-      </c>
-      <c r="N79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" t="s">
-        <v>73</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K80" t="s">
-        <v>61</v>
-      </c>
-      <c r="L80" t="s">
-        <v>38</v>
-      </c>
-      <c r="M80" t="s">
-        <v>71</v>
-      </c>
-      <c r="N80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/matches.xlsx
+++ b/matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\iCentro\Desktop\Escritorio\Facu\Analisis exploratorio de datos (Shiny)\Proyecto-WORLDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B707D-EA6D-4BDA-B054-BB8EC536EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C880734B-E327-48CD-A15B-74A700DA05C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C6FBEDB-E842-4995-A78D-B58436CB68C0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8310" xr2:uid="{6C6FBEDB-E842-4995-A78D-B58436CB68C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="318">
   <si>
     <t>Date</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>CoreJJ</t>
-  </si>
-  <si>
-    <t>0N</t>
   </si>
   <si>
     <t>BTC</t>
@@ -1368,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D0EFB-10A1-43D7-87F4-77EB0B831DD5}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W73" sqref="W73"/>
+    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF76" sqref="AF76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1394,94 +1391,94 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>4</v>
@@ -1528,7 +1525,7 @@
         <v>45249.447222222225</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1609,7 +1606,7 @@
         <v>121</v>
       </c>
       <c r="AC2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD2" t="s">
         <v>122</v>
@@ -1630,7 +1627,7 @@
         <v>130</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK2" s="3">
         <v>41229</v>
@@ -1674,7 +1671,7 @@
         <v>45249.410416666666</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1755,7 +1752,7 @@
         <v>121</v>
       </c>
       <c r="AC3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD3" t="s">
         <v>122</v>
@@ -1776,7 +1773,7 @@
         <v>130</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK3" s="3">
         <v>45122</v>
@@ -1820,7 +1817,7 @@
         <v>45249.372916666667</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1901,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="AC4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD4" t="s">
         <v>122</v>
@@ -1922,7 +1919,7 @@
         <v>130</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK4" s="3">
         <v>49024</v>
@@ -1966,7 +1963,7 @@
         <v>45242.450694444444</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -2044,7 +2041,7 @@
         <v>123</v>
       </c>
       <c r="AB5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC5" t="s">
         <v>124</v>
@@ -2068,7 +2065,7 @@
         <v>130</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK5" s="3">
         <v>51388</v>
@@ -2112,7 +2109,7 @@
         <v>45242.415972222225</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -2148,7 +2145,7 @@
         <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
@@ -2205,7 +2202,7 @@
         <v>123</v>
       </c>
       <c r="AG6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH6" t="s">
         <v>124</v>
@@ -2214,7 +2211,7 @@
         <v>125</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK6" s="3">
         <v>55267</v>
@@ -2258,7 +2255,7 @@
         <v>45242.375694444447</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -2336,7 +2333,7 @@
         <v>123</v>
       </c>
       <c r="AB7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC7" t="s">
         <v>124</v>
@@ -2404,7 +2401,7 @@
         <v>45242.345138888886</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2497,7 +2494,7 @@
         <v>123</v>
       </c>
       <c r="AG8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH8" t="s">
         <v>124</v>
@@ -2506,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK8" s="3">
         <v>48178</v>
@@ -2550,7 +2547,7 @@
         <v>45241.484027777777</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2631,13 +2628,13 @@
         <v>121</v>
       </c>
       <c r="AC9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD9" t="s">
         <v>122</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF9" t="s">
         <v>131</v>
@@ -2652,7 +2649,7 @@
         <v>134</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK9" s="3">
         <v>64526</v>
@@ -2696,7 +2693,7 @@
         <v>45241.451388888891</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2768,7 +2765,7 @@
         <v>109</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA10" t="s">
         <v>131</v>
@@ -2792,13 +2789,13 @@
         <v>121</v>
       </c>
       <c r="AH10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI10" t="s">
         <v>122</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK10" s="3">
         <v>56853</v>
@@ -2842,7 +2839,7 @@
         <v>45241.417361111111</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -2923,13 +2920,13 @@
         <v>121</v>
       </c>
       <c r="AC11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD11" t="s">
         <v>122</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF11" t="s">
         <v>131</v>
@@ -2944,7 +2941,7 @@
         <v>134</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK11" s="3">
         <v>52694</v>
@@ -2988,7 +2985,7 @@
         <v>45241.379861111112</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3060,7 +3057,7 @@
         <v>96</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA12" t="s">
         <v>131</v>
@@ -3084,13 +3081,13 @@
         <v>121</v>
       </c>
       <c r="AH12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI12" t="s">
         <v>122</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK12" s="3">
         <v>73260</v>
@@ -3134,7 +3131,7 @@
         <v>45241.345138888886</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3215,13 +3212,13 @@
         <v>121</v>
       </c>
       <c r="AC13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD13" t="s">
         <v>122</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF13" t="s">
         <v>131</v>
@@ -3236,7 +3233,7 @@
         <v>134</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK13" s="3">
         <v>59187</v>
@@ -3280,7 +3277,7 @@
         <v>45235.409722222219</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>22</v>
@@ -3355,7 +3352,7 @@
         <v>135</v>
       </c>
       <c r="AA14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB14" t="s">
         <v>136</v>
@@ -3382,7 +3379,7 @@
         <v>130</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK14" s="3">
         <v>40096</v>
@@ -3426,7 +3423,7 @@
         <v>45235.373611111114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
@@ -3501,7 +3498,7 @@
         <v>135</v>
       </c>
       <c r="AA15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB15" t="s">
         <v>136</v>
@@ -3528,7 +3525,7 @@
         <v>130</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK15" s="3">
         <v>49147</v>
@@ -3572,7 +3569,7 @@
         <v>45235.341666666667</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -3647,7 +3644,7 @@
         <v>135</v>
       </c>
       <c r="AA16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB16" t="s">
         <v>136</v>
@@ -3674,7 +3671,7 @@
         <v>130</v>
       </c>
       <c r="AJ16" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK16" s="3">
         <v>41532</v>
@@ -3718,7 +3715,7 @@
         <v>45234.44027777778</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
@@ -3811,7 +3808,7 @@
         <v>123</v>
       </c>
       <c r="AG17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH17" t="s">
         <v>124</v>
@@ -3820,7 +3817,7 @@
         <v>125</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK17" s="3">
         <v>60151</v>
@@ -3864,7 +3861,7 @@
         <v>45234.408333333333</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
@@ -3957,7 +3954,7 @@
         <v>123</v>
       </c>
       <c r="AG18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH18" t="s">
         <v>124</v>
@@ -3966,7 +3963,7 @@
         <v>125</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK18" s="3">
         <v>44433</v>
@@ -4010,7 +4007,7 @@
         <v>45234.376388888886</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
@@ -4088,7 +4085,7 @@
         <v>123</v>
       </c>
       <c r="AB19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC19" t="s">
         <v>124</v>
@@ -4156,7 +4153,7 @@
         <v>45234.342361111114</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -4234,7 +4231,7 @@
         <v>123</v>
       </c>
       <c r="AB20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC20" t="s">
         <v>124</v>
@@ -4258,7 +4255,7 @@
         <v>143</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK20" s="3">
         <v>48069</v>
@@ -4302,7 +4299,7 @@
         <v>45233.495833333334</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
@@ -4374,7 +4371,7 @@
         <v>51</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA21" t="s">
         <v>131</v>
@@ -4389,7 +4386,7 @@
         <v>134</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF21" t="s">
         <v>144</v>
@@ -4404,7 +4401,7 @@
         <v>147</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK21" s="3">
         <v>63411</v>
@@ -4448,7 +4445,7 @@
         <v>45233.457638888889</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -4520,7 +4517,7 @@
         <v>51</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA22" t="s">
         <v>131</v>
@@ -4535,7 +4532,7 @@
         <v>134</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF22" t="s">
         <v>144</v>
@@ -4550,7 +4547,7 @@
         <v>147</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK22" s="3">
         <v>60190</v>
@@ -4594,7 +4591,7 @@
         <v>45233.411805555559</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>25</v>
@@ -4666,7 +4663,7 @@
         <v>82</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA23" t="s">
         <v>144</v>
@@ -4681,7 +4678,7 @@
         <v>147</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF23" t="s">
         <v>131</v>
@@ -4696,7 +4693,7 @@
         <v>134</v>
       </c>
       <c r="AJ23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AK23" s="3">
         <v>90253</v>
@@ -4740,7 +4737,7 @@
         <v>45233.379166666666</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>21</v>
@@ -4812,7 +4809,7 @@
         <v>67</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA24" t="s">
         <v>131</v>
@@ -4827,7 +4824,7 @@
         <v>134</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF24" t="s">
         <v>144</v>
@@ -4842,7 +4839,7 @@
         <v>147</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK24" s="3">
         <v>58761</v>
@@ -4881,12 +4878,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45233.341666666667</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -4958,7 +4955,7 @@
         <v>52</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA25" t="s">
         <v>144</v>
@@ -4973,7 +4970,7 @@
         <v>147</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF25" t="s">
         <v>131</v>
@@ -4988,7 +4985,7 @@
         <v>134</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AK25" s="3">
         <v>48578</v>
@@ -5032,7 +5029,7 @@
         <v>45232.420138888891</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -5128,13 +5125,13 @@
         <v>121</v>
       </c>
       <c r="AH26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI26" t="s">
         <v>122</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK26" s="3">
         <v>40879</v>
@@ -5178,7 +5175,7 @@
         <v>45232.383333333331</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -5274,13 +5271,13 @@
         <v>121</v>
       </c>
       <c r="AH27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI27" t="s">
         <v>122</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK27" s="3">
         <v>53863</v>
@@ -5324,7 +5321,7 @@
         <v>45232.342361111114</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -5420,13 +5417,13 @@
         <v>121</v>
       </c>
       <c r="AH28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI28" t="s">
         <v>122</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK28" s="3">
         <v>65145</v>
@@ -5470,7 +5467,7 @@
         <v>45228.45</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
@@ -5542,7 +5539,7 @@
         <v>40</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA29" t="s">
         <v>131</v>
@@ -5572,7 +5569,7 @@
         <v>157</v>
       </c>
       <c r="AJ29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK29" s="3">
         <v>57612</v>
@@ -5616,7 +5613,7 @@
         <v>45228.405555555553</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -5703,7 +5700,7 @@
         <v>157</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF30" t="s">
         <v>131</v>
@@ -5718,7 +5715,7 @@
         <v>134</v>
       </c>
       <c r="AJ30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK30" s="3">
         <v>83973</v>
@@ -5762,7 +5759,7 @@
         <v>45228.365277777775</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -5849,7 +5846,7 @@
         <v>157</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF31" t="s">
         <v>131</v>
@@ -5864,7 +5861,7 @@
         <v>134</v>
       </c>
       <c r="AJ31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK31" s="3">
         <v>54139</v>
@@ -5908,7 +5905,7 @@
         <v>45228.331944444442</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
@@ -5989,7 +5986,7 @@
         <v>160</v>
       </c>
       <c r="AC32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD32" t="s">
         <v>161</v>
@@ -6004,13 +6001,13 @@
         <v>121</v>
       </c>
       <c r="AH32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI32" t="s">
         <v>122</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK32" s="3">
         <v>40109</v>
@@ -6054,7 +6051,7 @@
         <v>45228.29583333333</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
@@ -6135,7 +6132,7 @@
         <v>121</v>
       </c>
       <c r="AC33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD33" t="s">
         <v>122</v>
@@ -6150,13 +6147,13 @@
         <v>160</v>
       </c>
       <c r="AH33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI33" t="s">
         <v>161</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK33" s="3">
         <v>63375</v>
@@ -6200,7 +6197,7 @@
         <v>45228.259027777778</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
@@ -6281,7 +6278,7 @@
         <v>160</v>
       </c>
       <c r="AC34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD34" t="s">
         <v>161</v>
@@ -6296,13 +6293,13 @@
         <v>121</v>
       </c>
       <c r="AH34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI34" t="s">
         <v>122</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK34" s="3">
         <v>54145</v>
@@ -6346,7 +6343,7 @@
         <v>45228.211111111108</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>29</v>
@@ -6448,7 +6445,7 @@
         <v>143</v>
       </c>
       <c r="AJ35" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK35" s="3">
         <v>77706</v>
@@ -6492,7 +6489,7 @@
         <v>45228.173611111109</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -6594,7 +6591,7 @@
         <v>166</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK36" s="3">
         <v>70428</v>
@@ -6638,7 +6635,7 @@
         <v>45227.40625</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>21</v>
@@ -6710,7 +6707,7 @@
         <v>47</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA37" t="s">
         <v>131</v>
@@ -6740,7 +6737,7 @@
         <v>130</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK37" s="3">
         <v>49962</v>
@@ -6784,7 +6781,7 @@
         <v>45227.372916666667</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>18</v>
@@ -6871,7 +6868,7 @@
         <v>130</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF38" t="s">
         <v>131</v>
@@ -6886,7 +6883,7 @@
         <v>134</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK38" s="3">
         <v>57171</v>
@@ -6930,7 +6927,7 @@
         <v>45227.336805555555</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
@@ -7032,7 +7029,7 @@
         <v>152</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK39" s="3">
         <v>46160</v>
@@ -7076,7 +7073,7 @@
         <v>45227.3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -7178,7 +7175,7 @@
         <v>157</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK40" s="3">
         <v>62010</v>
@@ -7222,7 +7219,7 @@
         <v>45226.444444444445</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>22</v>
@@ -7297,7 +7294,7 @@
         <v>135</v>
       </c>
       <c r="AA41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB41" t="s">
         <v>136</v>
@@ -7324,7 +7321,7 @@
         <v>143</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK41" s="3">
         <v>49884</v>
@@ -7368,7 +7365,7 @@
         <v>45226.407638888886</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
@@ -7458,7 +7455,7 @@
         <v>135</v>
       </c>
       <c r="AF42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s">
         <v>136</v>
@@ -7470,7 +7467,7 @@
         <v>138</v>
       </c>
       <c r="AJ42" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK42" s="3">
         <v>65080</v>
@@ -7514,7 +7511,7 @@
         <v>45226.368750000001</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
@@ -7604,7 +7601,7 @@
         <v>135</v>
       </c>
       <c r="AF43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s">
         <v>136</v>
@@ -7616,7 +7613,7 @@
         <v>138</v>
       </c>
       <c r="AJ43" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK43" s="3">
         <v>58245</v>
@@ -7660,7 +7657,7 @@
         <v>45226.334027777775</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>30</v>
@@ -7762,7 +7759,7 @@
         <v>166</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK44" s="3">
         <v>39854</v>
@@ -7806,7 +7803,7 @@
         <v>45226.300694444442</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
@@ -7908,7 +7905,7 @@
         <v>171</v>
       </c>
       <c r="AJ45" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK45" s="3">
         <v>52392</v>
@@ -7952,7 +7949,7 @@
         <v>45225.454861111109</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>31</v>
@@ -7991,7 +7988,7 @@
         <v>73</v>
       </c>
       <c r="O46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>53</v>
@@ -8048,13 +8045,13 @@
         <v>121</v>
       </c>
       <c r="AH46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI46" t="s">
         <v>122</v>
       </c>
       <c r="AJ46" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK46" s="3">
         <v>45439</v>
@@ -8098,7 +8095,7 @@
         <v>45225.415277777778</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>31</v>
@@ -8194,13 +8191,13 @@
         <v>121</v>
       </c>
       <c r="AH47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI47" t="s">
         <v>122</v>
       </c>
       <c r="AJ47" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK47" s="3">
         <v>54127</v>
@@ -8244,7 +8241,7 @@
         <v>45225.374305555553</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>32</v>
@@ -8325,7 +8322,7 @@
         <v>179</v>
       </c>
       <c r="AC48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD48" t="s">
         <v>180</v>
@@ -8340,13 +8337,13 @@
         <v>160</v>
       </c>
       <c r="AH48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI48" t="s">
         <v>161</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK48" s="3">
         <v>58897</v>
@@ -8390,7 +8387,7 @@
         <v>45225.341666666667</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>28</v>
@@ -8471,7 +8468,7 @@
         <v>160</v>
       </c>
       <c r="AC49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD49" t="s">
         <v>161</v>
@@ -8486,13 +8483,13 @@
         <v>179</v>
       </c>
       <c r="AH49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AI49" t="s">
         <v>180</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK49" s="3">
         <v>59092</v>
@@ -8536,7 +8533,7 @@
         <v>45225.299305555556</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>32</v>
@@ -8617,7 +8614,7 @@
         <v>179</v>
       </c>
       <c r="AC50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD50" t="s">
         <v>180</v>
@@ -8632,13 +8629,13 @@
         <v>160</v>
       </c>
       <c r="AH50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI50" t="s">
         <v>161</v>
       </c>
       <c r="AJ50" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK50" s="3">
         <v>82088</v>
@@ -8677,12 +8674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45222.441666666666</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>33</v>
@@ -8706,13 +8703,13 @@
         <v>94</v>
       </c>
       <c r="J51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M51" t="s">
         <v>48</v>
@@ -8754,7 +8751,7 @@
         <v>80</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA51" t="s">
         <v>181</v>
@@ -8784,7 +8781,7 @@
         <v>166</v>
       </c>
       <c r="AJ51" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK51" s="3">
         <v>40238</v>
@@ -8823,12 +8820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45222.410416666666</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>29</v>
@@ -8843,7 +8840,7 @@
         <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
@@ -8852,7 +8849,7 @@
         <v>106</v>
       </c>
       <c r="J52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>44</v>
@@ -8915,7 +8912,7 @@
         <v>166</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF52" t="s">
         <v>181</v>
@@ -8930,7 +8927,7 @@
         <v>184</v>
       </c>
       <c r="AJ52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK52" s="3">
         <v>52046</v>
@@ -8974,7 +8971,7 @@
         <v>45222.365972222222</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>30</v>
@@ -9067,16 +9064,16 @@
         <v>186</v>
       </c>
       <c r="AG53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI53" t="s">
         <v>187</v>
       </c>
       <c r="AJ53" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK53" s="3">
         <v>69267</v>
@@ -9120,7 +9117,7 @@
         <v>45222.334027777775</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>34</v>
@@ -9198,10 +9195,10 @@
         <v>186</v>
       </c>
       <c r="AB54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD54" t="s">
         <v>187</v>
@@ -9222,7 +9219,7 @@
         <v>171</v>
       </c>
       <c r="AJ54" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK54" s="3">
         <v>49326</v>
@@ -9266,7 +9263,7 @@
         <v>45222.3</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>34</v>
@@ -9344,10 +9341,10 @@
         <v>186</v>
       </c>
       <c r="AB55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD55" t="s">
         <v>187</v>
@@ -9368,7 +9365,7 @@
         <v>171</v>
       </c>
       <c r="AJ55" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK55" s="3">
         <v>45274</v>
@@ -9412,7 +9409,7 @@
         <v>45221.42083333333</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -9508,13 +9505,13 @@
         <v>121</v>
       </c>
       <c r="AH56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI56" t="s">
         <v>122</v>
       </c>
       <c r="AJ56" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK56" s="3">
         <v>76480</v>
@@ -9558,7 +9555,7 @@
         <v>45221.381249999999</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>21</v>
@@ -9630,7 +9627,7 @@
         <v>80</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA57" t="s">
         <v>131</v>
@@ -9654,13 +9651,13 @@
         <v>160</v>
       </c>
       <c r="AH57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI57" t="s">
         <v>161</v>
       </c>
       <c r="AJ57" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK57" s="3">
         <v>64084</v>
@@ -9704,7 +9701,7 @@
         <v>45221.331944444442</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -9806,7 +9803,7 @@
         <v>176</v>
       </c>
       <c r="AJ58" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK58" s="3">
         <v>79248</v>
@@ -9850,7 +9847,7 @@
         <v>45221.299305555556</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>18</v>
@@ -9946,13 +9943,13 @@
         <v>179</v>
       </c>
       <c r="AH59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AI59" t="s">
         <v>180</v>
       </c>
       <c r="AJ59" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK59" s="3">
         <v>48782</v>
@@ -9991,12 +9988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45220.436111111114</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>27</v>
@@ -10083,7 +10080,7 @@
         <v>157</v>
       </c>
       <c r="AE60" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF60" t="s">
         <v>144</v>
@@ -10098,7 +10095,7 @@
         <v>147</v>
       </c>
       <c r="AJ60" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK60" s="3">
         <v>52798</v>
@@ -10137,12 +10134,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45220.401388888888</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>27</v>
@@ -10229,7 +10226,7 @@
         <v>157</v>
       </c>
       <c r="AE61" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF61" t="s">
         <v>144</v>
@@ -10244,7 +10241,7 @@
         <v>147</v>
       </c>
       <c r="AJ61" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK61" s="3">
         <v>53369</v>
@@ -10288,7 +10285,7 @@
         <v>45220.365972222222</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>19</v>
@@ -10366,7 +10363,7 @@
         <v>123</v>
       </c>
       <c r="AB62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC62" t="s">
         <v>124</v>
@@ -10378,7 +10375,7 @@
         <v>135</v>
       </c>
       <c r="AF62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG62" t="s">
         <v>136</v>
@@ -10390,7 +10387,7 @@
         <v>138</v>
       </c>
       <c r="AJ62" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK62" s="3">
         <v>52486</v>
@@ -10434,7 +10431,7 @@
         <v>45220.331944444442</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>22</v>
@@ -10509,7 +10506,7 @@
         <v>135</v>
       </c>
       <c r="AA63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB63" t="s">
         <v>136</v>
@@ -10527,7 +10524,7 @@
         <v>123</v>
       </c>
       <c r="AG63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH63" t="s">
         <v>124</v>
@@ -10536,7 +10533,7 @@
         <v>125</v>
       </c>
       <c r="AJ63" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK63" s="3">
         <v>57330</v>
@@ -10580,7 +10577,7 @@
         <v>45220.299305555556</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>19</v>
@@ -10658,7 +10655,7 @@
         <v>123</v>
       </c>
       <c r="AB64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC64" t="s">
         <v>124</v>
@@ -10670,7 +10667,7 @@
         <v>135</v>
       </c>
       <c r="AF64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG64" t="s">
         <v>136</v>
@@ -10682,7 +10679,7 @@
         <v>138</v>
       </c>
       <c r="AJ64" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK64" s="3">
         <v>55280</v>
@@ -10726,7 +10723,7 @@
         <v>45219.508333333331</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>29</v>
@@ -10828,7 +10825,7 @@
         <v>143</v>
       </c>
       <c r="AJ65" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK65" s="3">
         <v>51313</v>
@@ -10872,7 +10869,7 @@
         <v>45219.474305555559</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>19</v>
@@ -10950,7 +10947,7 @@
         <v>123</v>
       </c>
       <c r="AB66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC66" t="s">
         <v>124</v>
@@ -10959,7 +10956,7 @@
         <v>125</v>
       </c>
       <c r="AE66" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF66" t="s">
         <v>131</v>
@@ -10974,7 +10971,7 @@
         <v>134</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK66" s="3">
         <v>52171</v>
@@ -11018,7 +11015,7 @@
         <v>45219.427777777775</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>27</v>
@@ -11114,13 +11111,13 @@
         <v>121</v>
       </c>
       <c r="AH67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI67" t="s">
         <v>122</v>
       </c>
       <c r="AJ67" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AK67" s="3">
         <v>75520</v>
@@ -11164,7 +11161,7 @@
         <v>45219.38958333333</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>25</v>
@@ -11236,7 +11233,7 @@
         <v>80</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA68" t="s">
         <v>144</v>
@@ -11266,7 +11263,7 @@
         <v>130</v>
       </c>
       <c r="AJ68" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK68" s="3">
         <v>58370</v>
@@ -11310,7 +11307,7 @@
         <v>45219.353472222225</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>28</v>
@@ -11391,7 +11388,7 @@
         <v>160</v>
       </c>
       <c r="AC69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD69" t="s">
         <v>161</v>
@@ -11412,7 +11409,7 @@
         <v>171</v>
       </c>
       <c r="AJ69" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK69" s="3">
         <v>49855</v>
@@ -11456,7 +11453,7 @@
         <v>45219.314583333333</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>31</v>
@@ -11471,7 +11468,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H70" t="s">
         <v>48</v>
@@ -11543,7 +11540,7 @@
         <v>176</v>
       </c>
       <c r="AE70" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF70" t="s">
         <v>181</v>
@@ -11558,7 +11555,7 @@
         <v>184</v>
       </c>
       <c r="AJ70" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK70" s="3">
         <v>65500</v>
@@ -11602,7 +11599,7 @@
         <v>45219.285416666666</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>32</v>
@@ -11683,7 +11680,7 @@
         <v>179</v>
       </c>
       <c r="AC71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD71" t="s">
         <v>180</v>
@@ -11692,7 +11689,7 @@
         <v>135</v>
       </c>
       <c r="AF71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG71" t="s">
         <v>136</v>
@@ -11704,7 +11701,7 @@
         <v>138</v>
       </c>
       <c r="AJ71" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK71" s="3">
         <v>55531</v>
@@ -11748,7 +11745,7 @@
         <v>45219.21597222222</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>26</v>
@@ -11841,16 +11838,16 @@
         <v>186</v>
       </c>
       <c r="AG72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI72" t="s">
         <v>187</v>
       </c>
       <c r="AJ72" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK72" s="3">
         <v>60491</v>
@@ -11894,7 +11891,7 @@
         <v>45218.522916666669</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
@@ -11966,7 +11963,7 @@
         <v>70</v>
       </c>
       <c r="Z73" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA73" t="s">
         <v>131</v>
@@ -11978,7 +11975,7 @@
         <v>133</v>
       </c>
       <c r="AD73" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AE73" s="3" t="s">
         <v>139</v>
@@ -11996,7 +11993,7 @@
         <v>143</v>
       </c>
       <c r="AJ73" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK73" s="3">
         <v>85814</v>
@@ -12040,7 +12037,7 @@
         <v>45218.48333333333</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>22</v>
@@ -12115,7 +12112,7 @@
         <v>135</v>
       </c>
       <c r="AA74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB74" t="s">
         <v>136</v>
@@ -12136,13 +12133,13 @@
         <v>160</v>
       </c>
       <c r="AH74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI74" t="s">
         <v>161</v>
       </c>
       <c r="AJ74" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AK74" s="3">
         <v>60844</v>
@@ -12186,7 +12183,7 @@
         <v>45218.444444444445</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
@@ -12267,7 +12264,7 @@
         <v>121</v>
       </c>
       <c r="AC75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD75" t="s">
         <v>122</v>
@@ -12288,7 +12285,7 @@
         <v>152</v>
       </c>
       <c r="AJ75" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK75" s="3">
         <v>61041</v>
@@ -12332,7 +12329,7 @@
         <v>45218.392361111109</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>27</v>
@@ -12371,7 +12368,7 @@
         <v>57</v>
       </c>
       <c r="O76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>68</v>
@@ -12434,7 +12431,7 @@
         <v>166</v>
       </c>
       <c r="AJ76" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK76" s="3">
         <v>80837</v>
@@ -12478,7 +12475,7 @@
         <v>45218.354166666664</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>33</v>
@@ -12505,7 +12502,7 @@
         <v>68</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L77" t="s">
         <v>48</v>
@@ -12550,7 +12547,7 @@
         <v>80</v>
       </c>
       <c r="Z77" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA77" t="s">
         <v>181</v>
@@ -12571,7 +12568,7 @@
         <v>123</v>
       </c>
       <c r="AG77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH77" t="s">
         <v>124</v>
@@ -12580,7 +12577,7 @@
         <v>125</v>
       </c>
       <c r="AJ77" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK77" s="3">
         <v>46972</v>
@@ -12624,7 +12621,7 @@
         <v>45218.30972222222</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>25</v>
@@ -12696,7 +12693,7 @@
         <v>118</v>
       </c>
       <c r="Z78" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA78" t="s">
         <v>144</v>
@@ -12726,7 +12723,7 @@
         <v>171</v>
       </c>
       <c r="AJ78" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK78" s="3">
         <v>50430</v>
@@ -12770,7 +12767,7 @@
         <v>45218.268750000003</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>32</v>
@@ -12851,7 +12848,7 @@
         <v>179</v>
       </c>
       <c r="AC79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD79" t="s">
         <v>180</v>
@@ -12916,7 +12913,7 @@
         <v>45218.219444444447</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>18</v>
@@ -13009,16 +13006,16 @@
         <v>186</v>
       </c>
       <c r="AG80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI80" t="s">
         <v>187</v>
       </c>
       <c r="AJ80" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AK80" s="3">
         <v>67196</v>
